--- a/data/save_board.xlsx
+++ b/data/save_board.xlsx
@@ -681,17 +681,17 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>FAC</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
